--- a/data/hotels_by_city/Dallas/Dallas_shard_718.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_718.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,328 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r467056646-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>240524</t>
+  </si>
+  <si>
+    <t>467056646</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Unprofessional General Manager</t>
+  </si>
+  <si>
+    <t>Checked in October 2016 to March 10, 2017. We didn't cause any problems and didn't have any until my new Mac makeup was missing. I applied it before my Husband and I left, I distinctly remember exactly where I placed it and I never take makeup with me. I tried reporting to the General Manager JJ WALKER and she had the unmitigated audacity to verbally attack me stating "Her girls (cleaning ladies) didn't steal nor did they wear makeup, she didn't like me and only preferred to speak to MY HUSBAND"!..I was speechless... I immediately contacted G6 and made a complaint. Although the customer service rep was sympathetic she informed me that it would be to the discretion of the General Manager to reach out to me. When JJ Walker would see me she'd roll her eyes, give me the mean look or turn her head. We met on the stairs and she acted like I had a disease. So childish!
+March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office...Checked in October 2016 to March 10, 2017. We didn't cause any problems and didn't have any until my new Mac makeup was missing. I applied it before my Husband and I left, I distinctly remember exactly where I placed it and I never take makeup with me. I tried reporting to the General Manager JJ WALKER and she had the unmitigated audacity to verbally attack me stating "Her girls (cleaning ladies) didn't steal nor did they wear makeup, she didn't like me and only preferred to speak to MY HUSBAND"!..I was speechless... I immediately contacted G6 and made a complaint. Although the customer service rep was sympathetic she informed me that it would be to the discretion of the General Manager to reach out to me. When JJ Walker would see me she'd roll her eyes, give me the mean look or turn her head. We met on the stairs and she acted like I had a disease. So childish!March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office shaking her head and hands erratically, and told me to be quiet.  I went down to ask JJ had she been informed of the MARIJUANA smell in our room? She stood there and stared at me with the mean look on her face. I asked was she at least going to replace my makeup?  She stated "No I'm not going to replace your makeup, check out, get out Friday and have your HUSBAND come down better yet I'll call him". When I get upstairs she had called my husband and told him that she didn't like me and that we needed to check out Friday, March 10, 2017!!!  Of course I called G6 again only an useless apology. Clearly JJ Walker needs a crash course in Customer Service IMMEDIATELY  as well as all of the Front Desk Clerks. I work for Hilton and have experienced some of the rudest, intoxicated and even racist people BUT NOT ONE TIME have I ever treated anyone the way JJ Walker treated me.  MY HUSBAND is a Minister so God has our backs. It's unfortunate my daughter's school year is affected but it's okay. I see March 8th, 2017 another guest posted his bad experience that day with the RUDE STAFF....WOW!! ...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Checked in October 2016 to March 10, 2017. We didn't cause any problems and didn't have any until my new Mac makeup was missing. I applied it before my Husband and I left, I distinctly remember exactly where I placed it and I never take makeup with me. I tried reporting to the General Manager JJ WALKER and she had the unmitigated audacity to verbally attack me stating "Her girls (cleaning ladies) didn't steal nor did they wear makeup, she didn't like me and only preferred to speak to MY HUSBAND"!..I was speechless... I immediately contacted G6 and made a complaint. Although the customer service rep was sympathetic she informed me that it would be to the discretion of the General Manager to reach out to me. When JJ Walker would see me she'd roll her eyes, give me the mean look or turn her head. We met on the stairs and she acted like I had a disease. So childish!
+March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office...Checked in October 2016 to March 10, 2017. We didn't cause any problems and didn't have any until my new Mac makeup was missing. I applied it before my Husband and I left, I distinctly remember exactly where I placed it and I never take makeup with me. I tried reporting to the General Manager JJ WALKER and she had the unmitigated audacity to verbally attack me stating "Her girls (cleaning ladies) didn't steal nor did they wear makeup, she didn't like me and only preferred to speak to MY HUSBAND"!..I was speechless... I immediately contacted G6 and made a complaint. Although the customer service rep was sympathetic she informed me that it would be to the discretion of the General Manager to reach out to me. When JJ Walker would see me she'd roll her eyes, give me the mean look or turn her head. We met on the stairs and she acted like I had a disease. So childish!March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office shaking her head and hands erratically, and told me to be quiet.  I went down to ask JJ had she been informed of the MARIJUANA smell in our room? She stood there and stared at me with the mean look on her face. I asked was she at least going to replace my makeup?  She stated "No I'm not going to replace your makeup, check out, get out Friday and have your HUSBAND come down better yet I'll call him". When I get upstairs she had called my husband and told him that she didn't like me and that we needed to check out Friday, March 10, 2017!!!  Of course I called G6 again only an useless apology. Clearly JJ Walker needs a crash course in Customer Service IMMEDIATELY  as well as all of the Front Desk Clerks. I work for Hilton and have experienced some of the rudest, intoxicated and even racist people BUT NOT ONE TIME have I ever treated anyone the way JJ Walker treated me.  MY HUSBAND is a Minister so God has our backs. It's unfortunate my daughter's school year is affected but it's okay. I see March 8th, 2017 another guest posted his bad experience that day with the RUDE STAFF....WOW!! ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r465577470-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>465577470</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>The absolute WORST hotel stay ever!</t>
+  </si>
+  <si>
+    <t>Run, do not walk, away from this place. Extremely rude office staff. Phones do not work. Customer service is horrible. In over 50 years of travelling all over the world, this hotel stay was the worst ever.  Substandard hotel to say the least!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team  at Studio 6 Dallas - South Arlington, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Run, do not walk, away from this place. Extremely rude office staff. Phones do not work. Customer service is horrible. In over 50 years of travelling all over the world, this hotel stay was the worst ever.  Substandard hotel to say the least!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r433097505-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>433097505</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Overall not bad</t>
+  </si>
+  <si>
+    <t>Tried to get a room closer to Six Flags but they didn't have vacancy for the 2 nights we needed.  Found this hotel and they had vacancy for both nights and was within our budget.  We had a room with 1 queen bed and the room was small but nice.  It had wood laminate and tile floors and the bed was a little hard but we slept fine.  It does have a small kitchenette (bring coffee fixings if you need them).  The bathroom was nice and the water pressure very high and if you like scalding hot showers, you'll like the water temperature (yes, it can be adjusted to your liking).  The towels were clean and no free shampoo or conditioner but they did provide the small bar soaps.  We brought our own pillows and didn't use theirs.  No free Wi-Fi ($4.95 per week per device and we did not use it).  The front desk is closed after 8pm and check out is at noon.  We left Sunday morning at 10:30 and had to use the key drop off (office closed and opens at noon).  Small parking lot but overall we had a nice 2 night stay for our needs.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Tried to get a room closer to Six Flags but they didn't have vacancy for the 2 nights we needed.  Found this hotel and they had vacancy for both nights and was within our budget.  We had a room with 1 queen bed and the room was small but nice.  It had wood laminate and tile floors and the bed was a little hard but we slept fine.  It does have a small kitchenette (bring coffee fixings if you need them).  The bathroom was nice and the water pressure very high and if you like scalding hot showers, you'll like the water temperature (yes, it can be adjusted to your liking).  The towels were clean and no free shampoo or conditioner but they did provide the small bar soaps.  We brought our own pillows and didn't use theirs.  No free Wi-Fi ($4.95 per week per device and we did not use it).  The front desk is closed after 8pm and check out is at noon.  We left Sunday morning at 10:30 and had to use the key drop off (office closed and opens at noon).  Small parking lot but overall we had a nice 2 night stay for our needs.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r327076435-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>327076435</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>Hotel Not Too Far From Arlington Parks Mall</t>
+  </si>
+  <si>
+    <t>I booked this Studio 6 for 24-28 September 2015 via Expedia, but when I arrived I was told by the hotel staff that Expedia had booked it for only the night of 24 September. Was told that Expedia had made this type of mistake several times already. So the next day I had to enquire if there was a room available for 25-28 September, and it was lucky that it was available and I didn't have to look for and move to another another. Expedia - please clean up your act.The hotel was nice, pleasant and everything works, and the bed comfortable. It was room suitable for guests who want to do light cooking and dining - as it had a microwave and utensils. The staff were nice and polite. Checking in and out was easy and fuss-free.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I booked this Studio 6 for 24-28 September 2015 via Expedia, but when I arrived I was told by the hotel staff that Expedia had booked it for only the night of 24 September. Was told that Expedia had made this type of mistake several times already. So the next day I had to enquire if there was a room available for 25-28 September, and it was lucky that it was available and I didn't have to look for and move to another another. Expedia - please clean up your act.The hotel was nice, pleasant and everything works, and the bed comfortable. It was room suitable for guests who want to do light cooking and dining - as it had a microwave and utensils. The staff were nice and polite. Checking in and out was easy and fuss-free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r314463761-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>314463761</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Cowboys vs. Falcons</t>
+  </si>
+  <si>
+    <t>Pretty nice stay. No complaints. I had read some complaints and people have misplaced expectations. Decent bed, kitchen, bathroom. Nice! Made it to game within 25 mins. I have no children but there was a bowling alley and laser tag facility next to hotel as well as a mall and restaurants within a mile. Will stay here next game!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r294040698-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>294040698</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Great owners</t>
+  </si>
+  <si>
+    <t>We were moved to this motel after a horrible experience at the other Studio 6 in town. The desk clerk was awesome, the wifi was free. The room was pretty clean and looked remodeled. They were a lifesaver after our experience over the previous 24 hours. Would stay there again!</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r221458864-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>221458864</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>An Intruder at 1:30 AM</t>
+  </si>
+  <si>
+    <t>After arriving for 2nd night stay at around 1:30 and preparing for bed, a man opened the door and would have entered had He not seen me.  This was within 5 minutes of my arrival. The person at desk called and said the computer had made a mistake and she had given the room to someone else. The manager on Monday said I had only reserved the room one night.  How could this have been if my receipt showed that I had paid for two nights.  The next morning I was locked out the room and was was late for my appointment. In addition the shower drain did not work and had to stand in a half foot of water.In addition you had better bring your own soap and shampoo.Don't count on free wifi.  it costsMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>After arriving for 2nd night stay at around 1:30 and preparing for bed, a man opened the door and would have entered had He not seen me.  This was within 5 minutes of my arrival. The person at desk called and said the computer had made a mistake and she had given the room to someone else. The manager on Monday said I had only reserved the room one night.  How could this have been if my receipt showed that I had paid for two nights.  The next morning I was locked out the room and was was late for my appointment. In addition the shower drain did not work and had to stand in a half foot of water.In addition you had better bring your own soap and shampoo.Don't count on free wifi.  it costsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r221068136-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>221068136</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Really BAD experience</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights and really didn't expect very much from a low budget hotel so I don't have any complaints about the musky smelling room. On the second night I came back to my room and found that everything that I left in the room was gone. My Clothes, I am a diabetic so my medications were missing, bathing and shower accessories, ALL REMOVED FROM THE ROOM. I contacted the front desk and was told that the maid "might" have thought I checked out. She had to call someone to check on this. After about thirty minutes she called me back and said I would have to check on this at 9:00 in the morning. I had to leave and go to a class in the same clothes I wore the day before (embarrassing to say the least). At nearly noon I made it back to the hotel and they still had not retrieved my belongings. After standing there fuming both mad and smelly for 30 minutes they gave me a free nights stay at another one of their hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights and really didn't expect very much from a low budget hotel so I don't have any complaints about the musky smelling room. On the second night I came back to my room and found that everything that I left in the room was gone. My Clothes, I am a diabetic so my medications were missing, bathing and shower accessories, ALL REMOVED FROM THE ROOM. I contacted the front desk and was told that the maid "might" have thought I checked out. She had to call someone to check on this. After about thirty minutes she called me back and said I would have to check on this at 9:00 in the morning. I had to leave and go to a class in the same clothes I wore the day before (embarrassing to say the least). At nearly noon I made it back to the hotel and they still had not retrieved my belongings. After standing there fuming both mad and smelly for 30 minutes they gave me a free nights stay at another one of their hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r154592799-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>154592799</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Bites, Bed Bugs, Mis-information</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no...We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no reimbursement and the corporate staff informs us "Bed bugs are an epidemic".  Needless to say we were extremely surprised by the unconcerned attitude.  I have pictures of bites and room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no...We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no reimbursement and the corporate staff informs us "Bed bugs are an epidemic".  Needless to say we were extremely surprised by the unconcerned attitude.  I have pictures of bites and room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r135891466-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>135891466</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Back again</t>
+  </si>
+  <si>
+    <t>I ended up back here because everything else was full.    Same great rate even though the Rangers were home.    I had a long talk with the new owner and he explained how hard him and his wife are working to get the place fixed up.   There is a lot of red tape in Arlington.   I noticed a dramatic improvement just in a week.   They have put in new security cameras.    The staff could not be more helpful.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r135300079-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>135300079</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Don't bother!</t>
+  </si>
+  <si>
+    <t>The rooms and the hotel location isn't bad...fairly routine for a Studio 6. However, the staff there is the most rude and truly unstable group of employees I have seen this side of Eastern Europe!There are several MUCH better Studio 6 hotels in the area with professional and friendsly staff ready to make your stay much better.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r121753398-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>121753398</t>
+  </si>
+  <si>
+    <t>12/14/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My fiance and I stayed four days... the hotel was very clean, the staff was very polite except for the person at the front desk when I first checked in... but our overall stay was great. Great location, close to just about everything. We are planning to stay here again. Housekeeping came everyday to check to see if you needed anything.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r70314584-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>70314584</t>
+  </si>
+  <si>
+    <t>07/09/2010</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>My company stayed there for nearly 4 weeks in May and June. We were very impressed with our rooms and the ammenities they offer! Rooms were cleaned great and if we ever needed anything all we had to do was call the front desk and make the request and they made it happen. We are actually returning in a few weeks to stay there and look forward to the same great service we received the last time! The only thing they don't provide are shampoo, conditioner, and dish soap for pots and pans and dishes. Other than that everything was great!</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r54959176-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>54959176</t>
+  </si>
+  <si>
+    <t>02/01/2010</t>
+  </si>
+  <si>
+    <t>Best of the extended stay hotels in the area.</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel many times over the past 2-3 years for one week at a time.  There are many hotels in the area and even a few "extended stay" hotels.  Before I found this hotel I had inspected some of the rooms a the other "extended stay" hotels.... They looked like little low income apartments.  (And after seeing some of the people staying there, i concluded that that is what they are)  Then I found this hotel tucked off the main road (Cooper St.) and have been staying there ever since.  It is quiet and the rooms are adequate.  It is located in a commercial part of town and very easily accessible.   Lots of things to do and places to eat nearby.   Its only $200 per week, which is a little more than the other "extended stay" places, maybe that is why it has a little "better" customer base.  It seems safe to me, the rooms have a kitchen with appliances, and cook/dinner ware.  I would recommend it for business travelers and family travel.  You gotta pay for internet.....MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I have stayed in this hotel many times over the past 2-3 years for one week at a time.  There are many hotels in the area and even a few "extended stay" hotels.  Before I found this hotel I had inspected some of the rooms a the other "extended stay" hotels.... They looked like little low income apartments.  (And after seeing some of the people staying there, i concluded that that is what they are)  Then I found this hotel tucked off the main road (Cooper St.) and have been staying there ever since.  It is quiet and the rooms are adequate.  It is located in a commercial part of town and very easily accessible.   Lots of things to do and places to eat nearby.   Its only $200 per week, which is a little more than the other "extended stay" places, maybe that is why it has a little "better" customer base.  It seems safe to me, the rooms have a kitchen with appliances, and cook/dinner ware.  I would recommend it for business travelers and family travel.  You gotta pay for internet.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r23572374-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>23572374</t>
+  </si>
+  <si>
+    <t>01/14/2009</t>
+  </si>
+  <si>
+    <t>It started out really good, BUT....</t>
+  </si>
+  <si>
+    <t>I was in a handicapped room that was absolutely the cleanest hotel room I've stayed in for 10+ yrs. on my 5th night I awakened to something on my neck biting me several times. I finally got up and put my glasses on and yanked back the sheets and put all the lights on and my bed was FULL of tiny red ants! At 4AM, I got dressed, went to the office and had to change rooms. When I got to the new room, I pulled back the covers and there were black hairs all over the sheets, and I pulled OFF the sheet, and the mattress had a huge red blood spot on it from someone's recent stay. I walked back to the office, got the Mgr and brought her to see the mess. She went and got me new, clean bed linens and helped me flip the mattress to the other side. IF I could have left then, I would have. She supposedly 'credited' me for one night, but I have yet to see that a month later. My calls to the Mgr at the hotel have gone unanswered. I'll be finding another hotel my next trip to Arlington, TX. 
+It's a shame, because the hotel is in a GOOD and SAFE area of town. It was full but QUIET until I got moved to the 2nd room and then there were small dogs barking 24/7 next door...I was in a handicapped room that was absolutely the cleanest hotel room I've stayed in for 10+ yrs. on my 5th night I awakened to something on my neck biting me several times. I finally got up and put my glasses on and yanked back the sheets and put all the lights on and my bed was FULL of tiny red ants! At 4AM, I got dressed, went to the office and had to change rooms. When I got to the new room, I pulled back the covers and there were black hairs all over the sheets, and I pulled OFF the sheet, and the mattress had a huge red blood spot on it from someone's recent stay. I walked back to the office, got the Mgr and brought her to see the mess. She went and got me new, clean bed linens and helped me flip the mattress to the other side. IF I could have left then, I would have. She supposedly 'credited' me for one night, but I have yet to see that a month later. My calls to the Mgr at the hotel have gone unanswered. I'll be finding another hotel my next trip to Arlington, TX. It's a shame, because the hotel is in a GOOD and SAFE area of town. It was full but QUIET until I got moved to the 2nd room and then there were small dogs barking 24/7 next door to my room. I refer students of the school I train with to hotels that are close by and safe...now I will have to start all over. Luckily, there are many other hotels on the same street and I will find another place to stay and to refer students to.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>I was in a handicapped room that was absolutely the cleanest hotel room I've stayed in for 10+ yrs. on my 5th night I awakened to something on my neck biting me several times. I finally got up and put my glasses on and yanked back the sheets and put all the lights on and my bed was FULL of tiny red ants! At 4AM, I got dressed, went to the office and had to change rooms. When I got to the new room, I pulled back the covers and there were black hairs all over the sheets, and I pulled OFF the sheet, and the mattress had a huge red blood spot on it from someone's recent stay. I walked back to the office, got the Mgr and brought her to see the mess. She went and got me new, clean bed linens and helped me flip the mattress to the other side. IF I could have left then, I would have. She supposedly 'credited' me for one night, but I have yet to see that a month later. My calls to the Mgr at the hotel have gone unanswered. I'll be finding another hotel my next trip to Arlington, TX. 
+It's a shame, because the hotel is in a GOOD and SAFE area of town. It was full but QUIET until I got moved to the 2nd room and then there were small dogs barking 24/7 next door...I was in a handicapped room that was absolutely the cleanest hotel room I've stayed in for 10+ yrs. on my 5th night I awakened to something on my neck biting me several times. I finally got up and put my glasses on and yanked back the sheets and put all the lights on and my bed was FULL of tiny red ants! At 4AM, I got dressed, went to the office and had to change rooms. When I got to the new room, I pulled back the covers and there were black hairs all over the sheets, and I pulled OFF the sheet, and the mattress had a huge red blood spot on it from someone's recent stay. I walked back to the office, got the Mgr and brought her to see the mess. She went and got me new, clean bed linens and helped me flip the mattress to the other side. IF I could have left then, I would have. She supposedly 'credited' me for one night, but I have yet to see that a month later. My calls to the Mgr at the hotel have gone unanswered. I'll be finding another hotel my next trip to Arlington, TX. It's a shame, because the hotel is in a GOOD and SAFE area of town. It was full but QUIET until I got moved to the 2nd room and then there were small dogs barking 24/7 next door to my room. I refer students of the school I train with to hotels that are close by and safe...now I will have to start all over. Luckily, there are many other hotels on the same street and I will find another place to stay and to refer students to.More</t>
   </si>
 </sst>
 </file>
@@ -645,6 +967,951 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" t="s">
+        <v>146</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_718.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_718.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Karol L D</t>
   </si>
   <si>
     <t>06/15/2018</t>
@@ -182,6 +185,9 @@
 March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office...Checked in October 2016 to March 10, 2017. We didn't cause any problems and didn't have any until my new Mac makeup was missing. I applied it before my Husband and I left, I distinctly remember exactly where I placed it and I never take makeup with me. I tried reporting to the General Manager JJ WALKER and she had the unmitigated audacity to verbally attack me stating "Her girls (cleaning ladies) didn't steal nor did they wear makeup, she didn't like me and only preferred to speak to MY HUSBAND"!..I was speechless... I immediately contacted G6 and made a complaint. Although the customer service rep was sympathetic she informed me that it would be to the discretion of the General Manager to reach out to me. When JJ Walker would see me she'd roll her eyes, give me the mean look or turn her head. We met on the stairs and she acted like I had a disease. So childish!March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office shaking her head and hands erratically, and told me to be quiet.  I went down to ask JJ had she been informed of the MARIJUANA smell in our room? She stood there and stared at me with the mean look on her face. I asked was she at least going to replace my makeup?  She stated "No I'm not going to replace your makeup, check out, get out Friday and have your HUSBAND come down better yet I'll call him". When I get upstairs she had called my husband and told him that she didn't like me and that we needed to check out Friday, March 10, 2017!!!  Of course I called G6 again only an useless apology. Clearly JJ Walker needs a crash course in Customer Service IMMEDIATELY  as well as all of the Front Desk Clerks. I work for Hilton and have experienced some of the rudest, intoxicated and even racist people BUT NOT ONE TIME have I ever treated anyone the way JJ Walker treated me.  MY HUSBAND is a Minister so God has our backs. It's unfortunate my daughter's school year is affected but it's okay. I see March 8th, 2017 another guest posted his bad experience that day with the RUDE STAFF....WOW!! ...More</t>
   </si>
   <si>
+    <t>AWrightDallasTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r465577470-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -209,6 +215,9 @@
     <t>Run, do not walk, away from this place. Extremely rude office staff. Phones do not work. Customer service is horrible. In over 50 years of travelling all over the world, this hotel stay was the worst ever.  Substandard hotel to say the least!More</t>
   </si>
   <si>
+    <t>Claire L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r433097505-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -233,6 +242,9 @@
     <t>Tried to get a room closer to Six Flags but they didn't have vacancy for the 2 nights we needed.  Found this hotel and they had vacancy for both nights and was within our budget.  We had a room with 1 queen bed and the room was small but nice.  It had wood laminate and tile floors and the bed was a little hard but we slept fine.  It does have a small kitchenette (bring coffee fixings if you need them).  The bathroom was nice and the water pressure very high and if you like scalding hot showers, you'll like the water temperature (yes, it can be adjusted to your liking).  The towels were clean and no free shampoo or conditioner but they did provide the small bar soaps.  We brought our own pillows and didn't use theirs.  No free Wi-Fi ($4.95 per week per device and we did not use it).  The front desk is closed after 8pm and check out is at noon.  We left Sunday morning at 10:30 and had to use the key drop off (office closed and opens at noon).  Small parking lot but overall we had a nice 2 night stay for our needs.  More</t>
   </si>
   <si>
+    <t>YMLeow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r327076435-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -257,6 +269,9 @@
     <t>I booked this Studio 6 for 24-28 September 2015 via Expedia, but when I arrived I was told by the hotel staff that Expedia had booked it for only the night of 24 September. Was told that Expedia had made this type of mistake several times already. So the next day I had to enquire if there was a room available for 25-28 September, and it was lucky that it was available and I didn't have to look for and move to another another. Expedia - please clean up your act.The hotel was nice, pleasant and everything works, and the bed comfortable. It was room suitable for guests who want to do light cooking and dining - as it had a microwave and utensils. The staff were nice and polite. Checking in and out was easy and fuss-free.More</t>
   </si>
   <si>
+    <t>Stantrav</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r314463761-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -272,6 +287,9 @@
     <t>Pretty nice stay. No complaints. I had read some complaints and people have misplaced expectations. Decent bed, kitchen, bathroom. Nice! Made it to game within 25 mins. I have no children but there was a bowling alley and laser tag facility next to hotel as well as a mall and restaurants within a mile. Will stay here next game!</t>
   </si>
   <si>
+    <t>Stephanie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r294040698-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -290,6 +308,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>C T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r221458864-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -311,6 +332,9 @@
     <t>After arriving for 2nd night stay at around 1:30 and preparing for bed, a man opened the door and would have entered had He not seen me.  This was within 5 minutes of my arrival. The person at desk called and said the computer had made a mistake and she had given the room to someone else. The manager on Monday said I had only reserved the room one night.  How could this have been if my receipt showed that I had paid for two nights.  The next morning I was locked out the room and was was late for my appointment. In addition the shower drain did not work and had to stand in a half foot of water.In addition you had better bring your own soap and shampoo.Don't count on free wifi.  it costsMore</t>
   </si>
   <si>
+    <t>Medboss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r221068136-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -329,6 +353,9 @@
     <t>I stayed 3 nights and really didn't expect very much from a low budget hotel so I don't have any complaints about the musky smelling room. On the second night I came back to my room and found that everything that I left in the room was gone. My Clothes, I am a diabetic so my medications were missing, bathing and shower accessories, ALL REMOVED FROM THE ROOM. I contacted the front desk and was told that the maid "might" have thought I checked out. She had to call someone to check on this. After about thirty minutes she called me back and said I would have to check on this at 9:00 in the morning. I had to leave and go to a class in the same clothes I wore the day before (embarrassing to say the least). At nearly noon I made it back to the hotel and they still had not retrieved my belongings. After standing there fuming both mad and smelly for 30 minutes they gave me a free nights stay at another one of their hotels.More</t>
   </si>
   <si>
+    <t>Brad M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r154592799-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -353,6 +380,9 @@
     <t>We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no...We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no reimbursement and the corporate staff informs us "Bed bugs are an epidemic".  Needless to say we were extremely surprised by the unconcerned attitude.  I have pictures of bites and room.More</t>
   </si>
   <si>
+    <t>Mike K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r135891466-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -371,6 +401,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>JDtheGypsy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r135300079-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -389,6 +422,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>MsCheChe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r121753398-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -407,6 +443,9 @@
     <t>December 2011</t>
   </si>
   <si>
+    <t>Treedude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r70314584-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -425,6 +464,9 @@
     <t>June 2010</t>
   </si>
   <si>
+    <t>ConsumerGuy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r54959176-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -444,6 +486,9 @@
   </si>
   <si>
     <t>I have stayed in this hotel many times over the past 2-3 years for one week at a time.  There are many hotels in the area and even a few "extended stay" hotels.  Before I found this hotel I had inspected some of the rooms a the other "extended stay" hotels.... They looked like little low income apartments.  (And after seeing some of the people staying there, i concluded that that is what they are)  Then I found this hotel tucked off the main road (Cooper St.) and have been staying there ever since.  It is quiet and the rooms are adequate.  It is located in a commercial part of town and very easily accessible.   Lots of things to do and places to eat nearby.   Its only $200 per week, which is a little more than the other "extended stay" places, maybe that is why it has a little "better" customer base.  It seems safe to me, the rooms have a kitchen with appliances, and cook/dinner ware.  I would recommend it for business travelers and family travel.  You gotta pay for internet.....More</t>
+  </si>
+  <si>
+    <t>redhotzz324</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r23572374-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
@@ -971,43 +1016,47 @@
       <c r="A2" t="n">
         <v>31358</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178316</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1021,50 +1070,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31358</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178317</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1076,56 +1129,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31358</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>10697</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1139,50 +1196,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31358</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1202,50 +1263,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31358</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178319</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1259,50 +1324,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31358</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>13412</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1316,50 +1385,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31358</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1379,50 +1452,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31358</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178321</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1440,50 +1517,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31358</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>19025</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1507,50 +1588,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31358</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>10362</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -1574,50 +1659,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31358</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178322</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1641,50 +1730,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31358</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178323</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -1708,50 +1801,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31358</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178324</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1775,50 +1872,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31358</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178325</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -1842,50 +1943,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31358</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -1909,7 +2014,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_718.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_718.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>STR#</t>
   </si>
@@ -147,19 +147,58 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Karol L D</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r570257269-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>240524</t>
+  </si>
+  <si>
+    <t>570257269</t>
+  </si>
+  <si>
+    <t>04/01/2018</t>
+  </si>
+  <si>
+    <t>Jim’s  funeral .</t>
+  </si>
+  <si>
+    <t>Had a  Funaeral in Arlington needed a room for a few days ,this place did the job. Small rooms with queen bed ,small  kitchenette , with  microwave oven  full fridge rather, coffee pot&amp; toaster. No FYI!!! Nice tv .</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r536044699-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>536044699</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>A little smaller, but otherwise good place</t>
+  </si>
+  <si>
+    <t>It was a great place for us.   Kitchen was completely furnished, with good quality pots and pans.  There was even a full size coffee pot   Loved that there were no carpets.   Just tile and laminate.   Everything was clean</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r467056646-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
-  </si>
-  <si>
-    <t>30183</t>
-  </si>
-  <si>
-    <t>240524</t>
   </si>
   <si>
     <t>467056646</t>
@@ -185,9 +224,6 @@
 March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office...Checked in October 2016 to March 10, 2017. We didn't cause any problems and didn't have any until my new Mac makeup was missing. I applied it before my Husband and I left, I distinctly remember exactly where I placed it and I never take makeup with me. I tried reporting to the General Manager JJ WALKER and she had the unmitigated audacity to verbally attack me stating "Her girls (cleaning ladies) didn't steal nor did they wear makeup, she didn't like me and only preferred to speak to MY HUSBAND"!..I was speechless... I immediately contacted G6 and made a complaint. Although the customer service rep was sympathetic she informed me that it would be to the discretion of the General Manager to reach out to me. When JJ Walker would see me she'd roll her eyes, give me the mean look or turn her head. We met on the stairs and she acted like I had a disease. So childish!March 2, 2017 my family was awakened to the smell of MARIJUANA coming from our bathroom around 1:15 a.m. Due to my VERIFIABLE  HEART CONDITION I informed Maintenance and a Front Desk Clerk immediately.  I was informed by neighbors that JJ Walker addressed them but not a word to MY HUSBAND OR ME!!! March 8, 2017 I was on an urgent call on the stairs and before I ended the call,  simontainsly JJ Walker ran out of the office shaking her head and hands erratically, and told me to be quiet.  I went down to ask JJ had she been informed of the MARIJUANA smell in our room? She stood there and stared at me with the mean look on her face. I asked was she at least going to replace my makeup?  She stated "No I'm not going to replace your makeup, check out, get out Friday and have your HUSBAND come down better yet I'll call him". When I get upstairs she had called my husband and told him that she didn't like me and that we needed to check out Friday, March 10, 2017!!!  Of course I called G6 again only an useless apology. Clearly JJ Walker needs a crash course in Customer Service IMMEDIATELY  as well as all of the Front Desk Clerks. I work for Hilton and have experienced some of the rudest, intoxicated and even racist people BUT NOT ONE TIME have I ever treated anyone the way JJ Walker treated me.  MY HUSBAND is a Minister so God has our backs. It's unfortunate my daughter's school year is affected but it's okay. I see March 8th, 2017 another guest posted his bad experience that day with the RUDE STAFF....WOW!! ...More</t>
   </si>
   <si>
-    <t>AWrightDallasTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r465577470-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -215,9 +251,6 @@
     <t>Run, do not walk, away from this place. Extremely rude office staff. Phones do not work. Customer service is horrible. In over 50 years of travelling all over the world, this hotel stay was the worst ever.  Substandard hotel to say the least!More</t>
   </si>
   <si>
-    <t>Claire L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r433097505-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -236,13 +269,43 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Tried to get a room closer to Six Flags but they didn't have vacancy for the 2 nights we needed.  Found this hotel and they had vacancy for both nights and was within our budget.  We had a room with 1 queen bed and the room was small but nice.  It had wood laminate and tile floors and the bed was a little hard but we slept fine.  It does have a small kitchenette (bring coffee fixings if you need them).  The bathroom was nice and the water pressure very high and if you like scalding hot showers, you'll like the water temperature (yes, it can be adjusted to your liking).  The towels were clean and no free shampoo or conditioner but they did provide the small bar soaps.  We brought our own pillows and didn't use theirs.  No free Wi-Fi ($4.95 per week per device and we did not use it).  The front desk is closed after 8pm and check out is at noon.  We left Sunday morning at 10:30 and had to use the key drop off (office closed and opens at noon).  Small parking lot but overall we had a nice 2 night stay for our needs.  More</t>
   </si>
   <si>
-    <t>YMLeow</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r416163735-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>416163735</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Great Place to stay</t>
+  </si>
+  <si>
+    <t>No, this is not a 5 star hotel based on its amenities, but on it's overall value that we pay for, which is cleanliness and friendliness of Management and staff. MRS. JJ and staff does a wonderful job to ensure that your room is clean and in order. I have always received the highest level of professional service from JJ and staff and would recommend  this hotel to anyone I know coming into the area and needing a nice, clean and friendly place to stay. Hats off to JJ and staff!!!!!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r412264114-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>412264114</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Better than staying with family.</t>
+  </si>
+  <si>
+    <t>It's clean and quiet. The staff is friendly and exceedingly helpful. The rooms were recently remodeled with wood floors, new beds and flat screen TV. Cooper Street is only a few blocks away as is the Parks Mall. Always exciting are the Texas Rangers Baseball Team, just a short drive from this location. If football is your sport you'll be pleased with the outstanding number of High School games in the area.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r327076435-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
@@ -269,9 +332,6 @@
     <t>I booked this Studio 6 for 24-28 September 2015 via Expedia, but when I arrived I was told by the hotel staff that Expedia had booked it for only the night of 24 September. Was told that Expedia had made this type of mistake several times already. So the next day I had to enquire if there was a room available for 25-28 September, and it was lucky that it was available and I didn't have to look for and move to another another. Expedia - please clean up your act.The hotel was nice, pleasant and everything works, and the bed comfortable. It was room suitable for guests who want to do light cooking and dining - as it had a microwave and utensils. The staff were nice and polite. Checking in and out was easy and fuss-free.More</t>
   </si>
   <si>
-    <t>Stantrav</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r314463761-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -287,9 +347,6 @@
     <t>Pretty nice stay. No complaints. I had read some complaints and people have misplaced expectations. Decent bed, kitchen, bathroom. Nice! Made it to game within 25 mins. I have no children but there was a bowling alley and laser tag facility next to hotel as well as a mall and restaurants within a mile. Will stay here next game!</t>
   </si>
   <si>
-    <t>Stephanie H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r294040698-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -308,7 +365,52 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>C T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r278789672-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>278789672</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Musty &amp; roach infestation</t>
+  </si>
+  <si>
+    <t>I stayed at Studio 6 extended for 3 nights, my boyfriend had requested a nonsmoking 1 bed room but received a 2 bed smoking room. The woman in the front desk said they were "overbooked" so I am assuming they shoved us in the first one available for that day. Nice. I honestly tried to keep an open mind about the hotel for the first day but we were soon accommodated with roaches, flies and mosquitos. Flies and mosquitos I could deal with, but not the roaches. Not to mention their bathrooms have absolutely NO ventilation and remained musty my whole stay there. Also there were random leaks on the sticky tile floor by the kitchenettes. Also, there was a bag of chocolate chips in the freezer from the last tenants that stayed there and a hair clip in the bathroom?? I could barely do anything with the slow wifi (that you have to purchase for 4.95, not even 1M). I will NOT be staying at any Studio 6 hotels/suites what have you, I have had BETTER experiences at Super 8! We came home to all our clothes smelling like cigarettes! But other than the aesthetics of the hotel, location was great but still does not make it worth my money.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Studio 6 Dallas - South Arlington, responded to this reviewResponded June 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at Studio 6 extended for 3 nights, my boyfriend had requested a nonsmoking 1 bed room but received a 2 bed smoking room. The woman in the front desk said they were "overbooked" so I am assuming they shoved us in the first one available for that day. Nice. I honestly tried to keep an open mind about the hotel for the first day but we were soon accommodated with roaches, flies and mosquitos. Flies and mosquitos I could deal with, but not the roaches. Not to mention their bathrooms have absolutely NO ventilation and remained musty my whole stay there. Also there were random leaks on the sticky tile floor by the kitchenettes. Also, there was a bag of chocolate chips in the freezer from the last tenants that stayed there and a hair clip in the bathroom?? I could barely do anything with the slow wifi (that you have to purchase for 4.95, not even 1M). I will NOT be staying at any Studio 6 hotels/suites what have you, I have had BETTER experiences at Super 8! We came home to all our clothes smelling like cigarettes! But other than the aesthetics of the hotel, location was great but still does not make it worth my money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r242022006-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>242022006</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Nice extended stay</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks on business.  Clean room, full size refrigerator, stove top, microwave, dining table, double bed, dishes, pots and pans, utensils, cold A/C.  I stayed in room 308 which is a handicapped room.  Keep in mind that a handicap room has only a shower, so if a tub bath is a necessity then another room would be in order.  I found my stay to be quiet for the most part, nothing that isn't expected on a Thanksgiving Football weekend. I would again and have used Motel 6 motels and studio 6 extended stays. Staff and service was great. I am not affiliated with anyone at this location in any way.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for 2 weeks on business.  Clean room, full size refrigerator, stove top, microwave, dining table, double bed, dishes, pots and pans, utensils, cold A/C.  I stayed in room 308 which is a handicapped room.  Keep in mind that a handicap room has only a shower, so if a tub bath is a necessity then another room would be in order.  I found my stay to be quiet for the most part, nothing that isn't expected on a Thanksgiving Football weekend. I would again and have used Motel 6 motels and studio 6 extended stays. Staff and service was great. I am not affiliated with anyone at this location in any way.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r221458864-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
@@ -332,9 +434,6 @@
     <t>After arriving for 2nd night stay at around 1:30 and preparing for bed, a man opened the door and would have entered had He not seen me.  This was within 5 minutes of my arrival. The person at desk called and said the computer had made a mistake and she had given the room to someone else. The manager on Monday said I had only reserved the room one night.  How could this have been if my receipt showed that I had paid for two nights.  The next morning I was locked out the room and was was late for my appointment. In addition the shower drain did not work and had to stand in a half foot of water.In addition you had better bring your own soap and shampoo.Don't count on free wifi.  it costsMore</t>
   </si>
   <si>
-    <t>Medboss</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r221068136-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -353,9 +452,6 @@
     <t>I stayed 3 nights and really didn't expect very much from a low budget hotel so I don't have any complaints about the musky smelling room. On the second night I came back to my room and found that everything that I left in the room was gone. My Clothes, I am a diabetic so my medications were missing, bathing and shower accessories, ALL REMOVED FROM THE ROOM. I contacted the front desk and was told that the maid "might" have thought I checked out. She had to call someone to check on this. After about thirty minutes she called me back and said I would have to check on this at 9:00 in the morning. I had to leave and go to a class in the same clothes I wore the day before (embarrassing to say the least). At nearly noon I made it back to the hotel and they still had not retrieved my belongings. After standing there fuming both mad and smelly for 30 minutes they gave me a free nights stay at another one of their hotels.More</t>
   </si>
   <si>
-    <t>Brad M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r154592799-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -374,13 +470,46 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no...We have stayed in this hotel for one month for the last 7 years. This year was a nightmare. After being bitten by ? the front desk moved us to another room telling us we would only be out 2 or 3 days until the Terminx folks could check out the room.  We were not told to move our clothes, food, or gear. We waited the requested 2 days and were informed pest folks had not checked room yet.  When we again asked if we could return- "No you have to wait 48 hours, Terminx has treated the room."    Okay....we waited and then were told we needed to vacate the room we had been moved to....We asked if we could go back to the original room [it was one of 2 handicapped rooms in the hotel].  Yes we could go back....the room was a mess. White powdery residue over everything- coffee pot, toaster, counters, etc. Desk staff reaffirmed the room was okay and would have maid staff clean up residue.  Next day we moved back and less than 12 hours I was bitten 30 times. Front desk moved us again...this time we moved everything. The front desk confirmed that the room had bed bugs.  All our clothes had to be washed in hot water and dried in a HOT dryer for an hour...Any thing that was fabric had to be treated and exposed to high heat. We have received no reimbursement and the corporate staff informs us "Bed bugs are an epidemic".  Needless to say we were extremely surprised by the unconcerned attitude.  I have pictures of bites and room.More</t>
   </si>
   <si>
-    <t>Mike K</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r139420285-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>139420285</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Another Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>For the weekend of August 24-25, 2012, I was frantic to find hotel accommodations for my large family traveling to Arlington, Tx from various cities in Texas and Louisiana to attend the wedding of my son.  Arlington, Texas is now home to "Jerry's playground" (Cowboy Stadium) and there was a football and a baseball scheduled for that weekend.  When I could not complete all my housing at one hotel, I looked into the Studio 6 down the street.  Realized upon entering that it was an extended stay facility but they also accommodated overnighters.  Booked 2 rooms (2 dbl/dbls); room came with pots, pans, kitchen, linen, etc. My guest thoroughly enjoyed their stay for the time they were there.  No complaints.  Staff very nice and price was right:  $70 per night, inc taxes.  Would definitely recommend this type of facility in the future. Location good: right off Interstate (I-20) in the heart of South Arlington with all type of eateries and a mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>For the weekend of August 24-25, 2012, I was frantic to find hotel accommodations for my large family traveling to Arlington, Tx from various cities in Texas and Louisiana to attend the wedding of my son.  Arlington, Texas is now home to "Jerry's playground" (Cowboy Stadium) and there was a football and a baseball scheduled for that weekend.  When I could not complete all my housing at one hotel, I looked into the Studio 6 down the street.  Realized upon entering that it was an extended stay facility but they also accommodated overnighters.  Booked 2 rooms (2 dbl/dbls); room came with pots, pans, kitchen, linen, etc. My guest thoroughly enjoyed their stay for the time they were there.  No complaints.  Staff very nice and price was right:  $70 per night, inc taxes.  Would definitely recommend this type of facility in the future. Location good: right off Interstate (I-20) in the heart of South Arlington with all type of eateries and a mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r138058601-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>138058601</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Really nice place to stay for an extended time</t>
+  </si>
+  <si>
+    <t>This place was great for the few month's I was there. Close to everything and clean rooms. The internet was horrible though. Beds were nice and I think I had the only room in the place with a 32" flat screen. Get room 117!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r135891466-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
@@ -401,9 +530,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>JDtheGypsy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r135300079-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -422,9 +548,6 @@
     <t>October 2011</t>
   </si>
   <si>
-    <t>MsCheChe</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r121753398-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -443,7 +566,43 @@
     <t>December 2011</t>
   </si>
   <si>
-    <t>Treedude</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r120916513-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>120916513</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>Tricked by photo's and reviews!!</t>
+  </si>
+  <si>
+    <t>We booked this hotel because of it's rates and location. While it is in a wonderful location, this place is a dump! No remote for the t.v., and when you go to change the channel manually, the options menu pops up on the t.v., so you can't watch it anyways. There are cigarette burns in the sheets, and the bed looks about 20 years old! If it wasn't  so late when we got here we would have left immediately!! I guess the saying is true, you get what you pay for!! Fortunately, there is a Courtyard by Marriott that we can stay at not too far away! If you are limited on cash and have no other options this could be a last resort, but i might suggest that you bring your own sheets!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We booked this hotel because of it's rates and location. While it is in a wonderful location, this place is a dump! No remote for the t.v., and when you go to change the channel manually, the options menu pops up on the t.v., so you can't watch it anyways. There are cigarette burns in the sheets, and the bed looks about 20 years old! If it wasn't  so late when we got here we would have left immediately!! I guess the saying is true, you get what you pay for!! Fortunately, there is a Courtyard by Marriott that we can stay at not too far away! If you are limited on cash and have no other options this could be a last resort, but i might suggest that you bring your own sheets!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r119015339-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>119015339</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>good place and economical</t>
+  </si>
+  <si>
+    <t>We had booked one night at motel near this one but had a change of plans.  We were going to extend our stay at that motel but I found a cheaper rate for this one.  It was pretty nice, by moving over we gained a kitchen so we could save on food.  The room with one queen bed is just a little cramped but comfortable enough.  In some ways it's nice not having to worry about maids coming in every day.  I could say there were some issues but everything was minor, they didn't have any salt or pepper available and I never found out if I could get more coffee from the office, we bought filters and made coffee we liked.  If you want to save money in more ways than one, stay here, if I go back to Arlington I know where I'm staying as long as I can get a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had booked one night at motel near this one but had a change of plans.  We were going to extend our stay at that motel but I found a cheaper rate for this one.  It was pretty nice, by moving over we gained a kitchen so we could save on food.  The room with one queen bed is just a little cramped but comfortable enough.  In some ways it's nice not having to worry about maids coming in every day.  I could say there were some issues but everything was minor, they didn't have any salt or pepper available and I never found out if I could get more coffee from the office, we bought filters and made coffee we liked.  If you want to save money in more ways than one, stay here, if I go back to Arlington I know where I'm staying as long as I can get a room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r70314584-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
@@ -464,9 +623,6 @@
     <t>June 2010</t>
   </si>
   <si>
-    <t>ConsumerGuy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r54959176-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -486,9 +642,6 @@
   </si>
   <si>
     <t>I have stayed in this hotel many times over the past 2-3 years for one week at a time.  There are many hotels in the area and even a few "extended stay" hotels.  Before I found this hotel I had inspected some of the rooms a the other "extended stay" hotels.... They looked like little low income apartments.  (And after seeing some of the people staying there, i concluded that that is what they are)  Then I found this hotel tucked off the main road (Cooper St.) and have been staying there ever since.  It is quiet and the rooms are adequate.  It is located in a commercial part of town and very easily accessible.   Lots of things to do and places to eat nearby.   Its only $200 per week, which is a little more than the other "extended stay" places, maybe that is why it has a little "better" customer base.  It seems safe to me, the rooms have a kitchen with appliances, and cook/dinner ware.  I would recommend it for business travelers and family travel.  You gotta pay for internet.....More</t>
-  </si>
-  <si>
-    <t>redhotzz324</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r23572374-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
@@ -512,6 +665,21 @@
   <si>
     <t>I was in a handicapped room that was absolutely the cleanest hotel room I've stayed in for 10+ yrs. on my 5th night I awakened to something on my neck biting me several times. I finally got up and put my glasses on and yanked back the sheets and put all the lights on and my bed was FULL of tiny red ants! At 4AM, I got dressed, went to the office and had to change rooms. When I got to the new room, I pulled back the covers and there were black hairs all over the sheets, and I pulled OFF the sheet, and the mattress had a huge red blood spot on it from someone's recent stay. I walked back to the office, got the Mgr and brought her to see the mess. She went and got me new, clean bed linens and helped me flip the mattress to the other side. IF I could have left then, I would have. She supposedly 'credited' me for one night, but I have yet to see that a month later. My calls to the Mgr at the hotel have gone unanswered. I'll be finding another hotel my next trip to Arlington, TX. 
 It's a shame, because the hotel is in a GOOD and SAFE area of town. It was full but QUIET until I got moved to the 2nd room and then there were small dogs barking 24/7 next door...I was in a handicapped room that was absolutely the cleanest hotel room I've stayed in for 10+ yrs. on my 5th night I awakened to something on my neck biting me several times. I finally got up and put my glasses on and yanked back the sheets and put all the lights on and my bed was FULL of tiny red ants! At 4AM, I got dressed, went to the office and had to change rooms. When I got to the new room, I pulled back the covers and there were black hairs all over the sheets, and I pulled OFF the sheet, and the mattress had a huge red blood spot on it from someone's recent stay. I walked back to the office, got the Mgr and brought her to see the mess. She went and got me new, clean bed linens and helped me flip the mattress to the other side. IF I could have left then, I would have. She supposedly 'credited' me for one night, but I have yet to see that a month later. My calls to the Mgr at the hotel have gone unanswered. I'll be finding another hotel my next trip to Arlington, TX. It's a shame, because the hotel is in a GOOD and SAFE area of town. It was full but QUIET until I got moved to the 2nd room and then there were small dogs barking 24/7 next door to my room. I refer students of the school I train with to hotels that are close by and safe...now I will have to start all over. Luckily, there are many other hotels on the same street and I will find another place to stay and to refer students to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d240524-r4367832-Studio_6_Dallas_South_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>4367832</t>
+  </si>
+  <si>
+    <t>01/20/2006</t>
+  </si>
+  <si>
+    <t>Great for single guy over night</t>
+  </si>
+  <si>
+    <t>Great place for the money. Stayed several times for location and price.  Could be a lot cleaner.  Mattress and box springs were filthy.  Requested none smoking room.  Found chewed tobacco (large piece) on the box spring.  No matter how tired you are, check the room very carefully before going to bed.  Don't forget to bring shower shoes and disinfectant.</t>
   </si>
 </sst>
 </file>
@@ -1016,47 +1184,43 @@
       <c r="A2" t="n">
         <v>31358</v>
       </c>
-      <c r="B2" t="n">
-        <v>178316</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1070,119 +1234,113 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>31358</v>
       </c>
-      <c r="B3" t="n">
-        <v>178317</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>31358</v>
       </c>
-      <c r="B4" t="n">
-        <v>10697</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1196,121 +1354,111 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31358</v>
       </c>
-      <c r="B5" t="n">
-        <v>178318</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>74</v>
+      </c>
+      <c r="X5" t="s">
+        <v>75</v>
+      </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>31358</v>
       </c>
-      <c r="B6" t="n">
-        <v>178319</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1324,127 +1472,125 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>31358</v>
       </c>
-      <c r="B7" t="n">
-        <v>13412</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>31358</v>
       </c>
-      <c r="B8" t="n">
-        <v>178320</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1452,64 +1598,62 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>31358</v>
       </c>
-      <c r="B9" t="n">
-        <v>178321</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
         <v>102</v>
       </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1517,280 +1661,240 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>31358</v>
       </c>
-      <c r="B10" t="n">
-        <v>19025</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
-        <v>118</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>3</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>31358</v>
       </c>
-      <c r="B11" t="n">
-        <v>10362</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>31358</v>
       </c>
-      <c r="B12" t="n">
-        <v>178322</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>118</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
       <c r="Y12" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>31358</v>
       </c>
-      <c r="B13" t="n">
-        <v>178323</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>4</v>
@@ -1801,70 +1905,62 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>31358</v>
       </c>
-      <c r="B14" t="n">
-        <v>178324</v>
-      </c>
-      <c r="C14" t="s">
-        <v>141</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1872,70 +1968,60 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>31358</v>
       </c>
-      <c r="B15" t="n">
-        <v>178325</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="n">
         <v>3</v>
       </c>
-      <c r="N15" t="s">
-        <v>154</v>
-      </c>
-      <c r="O15" t="s">
-        <v>118</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1943,70 +2029,66 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>31358</v>
       </c>
-      <c r="B16" t="n">
-        <v>178326</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J16" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="O16" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
         <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2014,7 +2096,730 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>153</v>
+      </c>
+      <c r="K17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>156</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
+        <v>161</v>
+      </c>
+      <c r="L18" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="K24" t="s">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>199</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>200</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>202</v>
+      </c>
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" t="s">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s">
+        <v>205</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>209</v>
+      </c>
+      <c r="J26" t="s">
+        <v>210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" t="s">
+        <v>212</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>213</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31358</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
